--- a/Schéma plateau de jeu.xlsx
+++ b/Schéma plateau de jeu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guych\Desktop\Programmation\Langage C\Projet-Algo-Semestre-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8926FB3-BB09-4D14-BDAD-3737ACFD4F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CABDCB-33B4-4D92-91DA-9120705517FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{BF4C8361-4296-4B6C-9071-AA1A8277389E}"/>
+    <workbookView xWindow="13170" yWindow="-12540" windowWidth="14835" windowHeight="8355" xr2:uid="{BF4C8361-4296-4B6C-9071-AA1A8277389E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -52,12 +52,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -106,8 +113,8 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>171360</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Encre 2">
@@ -126,7 +133,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Encre 2">
@@ -171,8 +178,8 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>5646</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="4" name="Encre 3">
@@ -191,7 +198,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="4" name="Encre 3">
@@ -236,8 +243,8 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="5" name="Encre 4">
@@ -256,7 +263,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="5" name="Encre 4">
@@ -301,8 +308,8 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>142582</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="8" name="Encre 7">
@@ -321,7 +328,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="8" name="Encre 7">
@@ -366,8 +373,8 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>161597</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="9" name="Encre 8">
@@ -386,7 +393,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="9" name="Encre 8">
@@ -431,8 +438,8 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>157637</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="10" name="Encre 9">
@@ -451,7 +458,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="10" name="Encre 9">
@@ -496,8 +503,8 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>165197</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="13" name="Encre 12">
@@ -516,7 +523,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="13" name="Encre 12">
@@ -561,8 +568,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>171825</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="23" name="Encre 22">
@@ -581,7 +588,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="23" name="Encre 22">
@@ -626,8 +633,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>54337</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="27" name="Encre 26">
@@ -646,7 +653,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="27" name="Encre 26">
@@ -691,8 +698,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>139530</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="32" name="Encre 31">
@@ -711,7 +718,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="32" name="Encre 31">
@@ -756,8 +763,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>161045</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="35" name="Encre 34">
@@ -776,7 +783,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="35" name="Encre 34">
@@ -821,8 +828,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>47497</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="36" name="Encre 35">
@@ -841,7 +848,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="36" name="Encre 35">
@@ -886,8 +893,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>48577</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="37" name="Encre 36">
@@ -906,7 +913,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="37" name="Encre 36">
@@ -951,8 +958,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>160730</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="44" name="Encre 43">
@@ -971,7 +978,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="44" name="Encre 43">
@@ -1016,8 +1023,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>5482</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="45" name="Encre 44">
@@ -1036,7 +1043,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="45" name="Encre 44">
@@ -1081,8 +1088,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>162570</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="46" name="Encre 45">
@@ -1101,7 +1108,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="46" name="Encre 45">
@@ -1146,8 +1153,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>169792</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="47" name="Encre 46">
@@ -1166,7 +1173,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="47" name="Encre 46">
@@ -1211,8 +1218,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>169792</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="48" name="Encre 47">
@@ -1231,7 +1238,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="48" name="Encre 47">
@@ -1276,8 +1283,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>145737</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="51" name="Encre 50">
@@ -1296,7 +1303,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="51" name="Encre 50">
@@ -1341,8 +1348,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>144232</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="52" name="Encre 51">
@@ -1361,7 +1368,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="52" name="Encre 51">
@@ -1406,8 +1413,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>4425</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="53" name="Encre 52">
@@ -1426,7 +1433,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="53" name="Encre 52">
@@ -1471,8 +1478,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>151347</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="54" name="Encre 53">
@@ -1491,7 +1498,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="54" name="Encre 53">
@@ -1536,8 +1543,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>148042</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="57" name="Encre 56">
@@ -1556,7 +1563,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="57" name="Encre 56">
@@ -1601,8 +1608,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>155667</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="58" name="Encre 57">
@@ -1621,7 +1628,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="58" name="Encre 57">
@@ -1666,8 +1673,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>171062</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="59" name="Encre 58">
@@ -1686,7 +1693,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="59" name="Encre 58">
@@ -1731,8 +1738,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>173582</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="60" name="Encre 59">
@@ -1751,7 +1758,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="60" name="Encre 59">
@@ -1796,8 +1803,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>150902</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="61" name="Encre 60">
@@ -1816,7 +1823,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="61" name="Encre 60">
@@ -1861,8 +1868,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>159902</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="64" name="Encre 63">
@@ -1881,7 +1888,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="64" name="Encre 63">
@@ -2247,7 +2254,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">133 52 2764 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1346.69">136 40 2128 0 0,'0'0'321'0'0,"0"0"-262"0"0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 1-1 0 0,-5 1 129 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-6 11 0 0 0,9-13-137 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,5 7 0 0 0,-4-7-39 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,10-4 1 0 0,9-2 55 0 0,1-1 1 0 0,41-18-1 0 0,-55 21-57 0 0,-1-1-4 0 0,0 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-2-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,13-16 0 0 0,-20 22-7 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-2 0 0 0,1 2 25 0 0,-4 0-6 0 0,5 2-17 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,-4 1-15 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-3 9 0 0 0,5-13 20 0 0,-1 1 0 0 0,0 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,5 2 0 0 0,-5-2-48 0 0,57-33-24 0 0,-55 29 84 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-10 0 0 0,-1 14-21 0 0,1 7-278 0 0,1 1 295 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,7 8 0 0 0,-9-11-10 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,4 0-1 0 0,2-2-18 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,6-8 1 0 0,-9 8 5 0 0,0 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,3-7 0 0 0,6-14 94 0 0,-11 26-33 0 0,6-6-67 0 0,-7 6 9 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,5 1 25 0 0,105 73 166 0 0,-98-66-184 0 0,0 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,15 22 0 0 0,-24-32-31 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1 2 0 0 0,-1-1-67 0 0,-15 3-31 0 0,14-6 114 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-4 0 0 0 0,5-1 11 0 0,-31-6-105 0 0,30 6 96 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-2 0 0 0,1 1-59 0 0,5 0 46 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-2 0 0 0,4-3 1 0 0,7-4-72 0 0,13-6 84 0 0,7-4-47 0 0,33-28 0 0 0,-60 43 65 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,8-18 0 0 0,-12 25 13 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-2-1 0 0,-15 10 172 0 0,10-3-138 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-7 10 1 0 0,8-10-44 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,2 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,2 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,2-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,10 1-1 0 0,74-4-2049 0 0,-35-9-2378 0 0,-53 10 3502 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1346.68">136 40 2128 0 0,'0'0'321'0'0,"0"0"-262"0"0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 1-1 0 0,-5 1 129 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-6 11 0 0 0,9-13-137 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,5 7 0 0 0,-4-7-39 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,10-4 1 0 0,9-2 55 0 0,1-1 1 0 0,41-18-1 0 0,-55 21-57 0 0,-1-1-4 0 0,0 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-2-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,13-16 0 0 0,-20 22-7 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-2 0 0 0,1 2 25 0 0,-4 0-6 0 0,5 2-17 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,-4 1-15 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-3 9 0 0 0,5-13 20 0 0,-1 1 0 0 0,0 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,5 2 0 0 0,-5-2-48 0 0,57-33-24 0 0,-55 29 84 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-10 0 0 0,-1 14-21 0 0,1 7-278 0 0,1 1 295 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,7 8 0 0 0,-9-11-10 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,4 0-1 0 0,2-2-18 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,6-8 1 0 0,-9 8 5 0 0,0 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,3-7 0 0 0,6-14 94 0 0,-11 26-33 0 0,6-6-67 0 0,-7 6 9 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,5 1 25 0 0,105 73 166 0 0,-98-66-184 0 0,0 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,15 22 0 0 0,-24-32-31 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1 2 0 0 0,-1-1-67 0 0,-15 3-31 0 0,14-6 114 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-4 0 0 0 0,5-1 11 0 0,-31-6-105 0 0,30 6 96 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-2 0 0 0,1 1-59 0 0,5 0 46 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-2 0 0 0,4-3 1 0 0,7-4-72 0 0,13-6 84 0 0,7-4-47 0 0,33-28 0 0 0,-60 43 65 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,8-18 0 0 0,-12 25 13 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-2-1 0 0,-15 10 172 0 0,10-3-138 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-7 10 1 0 0,8-10-44 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,2 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,2 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,2-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,10 1-1 0 0,74-4-2049 0 0,-35-9-2378 0 0,-53 10 3502 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -3094,7 +3101,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3141,31 +3148,31 @@
         <f>SUM(A1,9)</f>
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <f t="shared" ref="B2:I9" si="1">SUM(B1,9)</f>
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -3179,31 +3186,31 @@
         <f t="shared" ref="A3:A9" si="2">SUM(A2,9)</f>
         <v>18</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -3217,31 +3224,31 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
@@ -3255,31 +3262,31 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
@@ -3293,31 +3300,31 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
@@ -3331,31 +3338,31 @@
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <f>SUM(G6,9)</f>
         <v>60</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
@@ -3369,31 +3376,31 @@
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
